--- a/excel/Student.xlsx
+++ b/excel/Student.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>SRN</t>
   </si>
@@ -122,16 +122,13 @@
     <t>MECH</t>
   </si>
   <si>
-    <t>1ru3453</t>
+    <t>1ru787</t>
   </si>
   <si>
     <t>rhdthchtd</t>
   </si>
   <si>
     <t>1987/02/02</t>
-  </si>
-  <si>
-    <t>e</t>
   </si>
   <si>
     <t>BTECH</t>
@@ -235,7 +232,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -411,7 +408,7 @@
         <v>37</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>3</v>
@@ -420,7 +417,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>34</v>

--- a/excel/Student.xlsx
+++ b/excel/Student.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>SRN</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>BTECH</t>
+  </si>
+  <si>
+    <t>1ru353</t>
+  </si>
+  <si>
+    <t>Some Name</t>
   </si>
 </sst>
 </file>
@@ -229,10 +235,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -423,6 +429,35 @@
         <v>34</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>819273</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
